--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -510,55 +510,55 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="C2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="D2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="E2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="F2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="G2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="H2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="I2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="J2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="K2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="L2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="M2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="N2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="O2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="P2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="Q2">
-        <v>910</v>
+        <v>577</v>
       </c>
       <c r="R2">
-        <v>910</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -566,55 +566,55 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>-0.003146525780787238</v>
+        <v>-0.001938535973185917</v>
       </c>
       <c r="C3">
-        <v>0.04028202622678791</v>
+        <v>0.0407258943294721</v>
       </c>
       <c r="D3">
-        <v>-0.3979716457512921</v>
+        <v>-0.3922673252131031</v>
       </c>
       <c r="E3">
-        <v>0.04087607889901423</v>
+        <v>0.04133262694607547</v>
       </c>
       <c r="F3">
-        <v>1.033764777778194</v>
+        <v>1.035492079042564</v>
       </c>
       <c r="G3">
-        <v>22.42613106698945</v>
+        <v>22.45315038901959</v>
       </c>
       <c r="H3">
-        <v>4.192590679899267</v>
+        <v>3.751525814696774</v>
       </c>
       <c r="I3">
-        <v>0.152249586004373</v>
+        <v>0.1202108090441464</v>
       </c>
       <c r="J3">
-        <v>0.00852051317477708</v>
+        <v>0.006625650661370029</v>
       </c>
       <c r="K3">
-        <v>267.803021978022</v>
+        <v>272.882582322357</v>
       </c>
       <c r="L3">
-        <v>96.43736263736264</v>
+        <v>62.842287694974</v>
       </c>
       <c r="M3">
-        <v>-0.06294548320757949</v>
+        <v>9.913366572968727e-05</v>
       </c>
       <c r="N3">
-        <v>23.92747252747253</v>
+        <v>19.47833622183709</v>
       </c>
       <c r="O3">
-        <v>0.7142857142857143</v>
+        <v>0.5996533795493935</v>
       </c>
       <c r="P3">
-        <v>0.5659920254781301</v>
+        <v>0.5809299413237923</v>
       </c>
       <c r="Q3">
-        <v>0.3097688922390609</v>
+        <v>0.4069075947648247</v>
       </c>
       <c r="R3">
-        <v>-0.2810644762145303</v>
+        <v>-0.2378059789456139</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -622,55 +622,55 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.04453700401510666</v>
+        <v>0.04621171414816402</v>
       </c>
       <c r="C4">
-        <v>0.01616458070109126</v>
+        <v>0.01681757096890582</v>
       </c>
       <c r="D4">
-        <v>0.7351029709028531</v>
+        <v>0.7598688520816733</v>
       </c>
       <c r="E4">
-        <v>0.01797043843225757</v>
+        <v>0.01858911861103874</v>
       </c>
       <c r="F4">
-        <v>0.02804289344344613</v>
+        <v>0.03050946230084511</v>
       </c>
       <c r="G4">
-        <v>0.3647281992319926</v>
+        <v>0.3990018775146948</v>
       </c>
       <c r="H4">
-        <v>1.145216888180524</v>
+        <v>0.9973697777978907</v>
       </c>
       <c r="I4">
-        <v>0.3983465817223269</v>
+        <v>0.4736644544527865</v>
       </c>
       <c r="J4">
-        <v>0.01468976760957857</v>
+        <v>0.01714635297483038</v>
       </c>
       <c r="K4">
-        <v>365.1459222818522</v>
+        <v>430.0131586274996</v>
       </c>
       <c r="L4">
-        <v>174.7559037206639</v>
+        <v>99.57502273708354</v>
       </c>
       <c r="M4">
-        <v>0.4424305179511061</v>
+        <v>0.000195443468313565</v>
       </c>
       <c r="N4">
-        <v>51.39854001328288</v>
+        <v>29.35356721657771</v>
       </c>
       <c r="O4">
-        <v>0.4520023726709903</v>
+        <v>0.4903937099482283</v>
       </c>
       <c r="P4">
-        <v>0.4210658153338717</v>
+        <v>0.5006873736318863</v>
       </c>
       <c r="Q4">
-        <v>0.5068017604129894</v>
+        <v>0.5071188567247068</v>
       </c>
       <c r="R4">
-        <v>0.6428984409808769</v>
+        <v>0.6087837643419937</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-0.3951316510662166</v>
+        <v>-0.001841986269043082</v>
       </c>
       <c r="N5">
         <v>2</v>
@@ -734,40 +734,40 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>-0.02673340743347374</v>
+        <v>-0.027016251829588</v>
       </c>
       <c r="C6">
-        <v>0.02892226790507851</v>
+        <v>0.02867887538564325</v>
       </c>
       <c r="D6">
-        <v>-0.7970748811432816</v>
+        <v>-0.811639126970594</v>
       </c>
       <c r="E6">
         <v>0.03005780015697953</v>
       </c>
       <c r="F6">
-        <v>1.012828080118726</v>
+        <v>1.012994946160287</v>
       </c>
       <c r="G6">
-        <v>22.15359861435176</v>
+        <v>22.15855989456801</v>
       </c>
       <c r="H6">
-        <v>3.258096538021482</v>
+        <v>3.091042453358316</v>
       </c>
       <c r="I6">
-        <v>-0.1313890399791163</v>
+        <v>-0.2803987719560748</v>
       </c>
       <c r="J6">
-        <v>0.002865868658332802</v>
+        <v>-0.001048616455305351</v>
       </c>
       <c r="K6">
-        <v>121.625</v>
+        <v>121.5</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>-0.3951316510662166</v>
+        <v>-1.008796462727275e-05</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>-0.4829407502318879</v>
+        <v>-0.3953216147515852</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -790,55 +790,55 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>0.0005003411493404997</v>
+        <v>0.0008691538185132686</v>
       </c>
       <c r="C7">
         <v>0.0366233015154185</v>
       </c>
       <c r="D7">
-        <v>-0.2641066358307432</v>
+        <v>-0.227683830975827</v>
       </c>
       <c r="E7">
-        <v>0.03513609353801338</v>
+        <v>0.0354755200939189</v>
       </c>
       <c r="F7">
-        <v>1.028148571371244</v>
+        <v>1.028511438484733</v>
       </c>
       <c r="G7">
-        <v>22.34702356850363</v>
+        <v>22.35885481011329</v>
       </c>
       <c r="H7">
-        <v>3.960767816066775</v>
+        <v>3.555348061489414</v>
       </c>
       <c r="I7">
-        <v>0.2035948781485819</v>
+        <v>0.2537756769246015</v>
       </c>
       <c r="J7">
-        <v>0.01134546747794276</v>
+        <v>0.008782645917686148</v>
       </c>
       <c r="K7">
-        <v>183.875</v>
+        <v>174</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>-0.3162693905764823</v>
+        <v>0.0001471774478239837</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0.6749069999999999</v>
+        <v>0.855232</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>-0.06531361139408895</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -846,52 +846,52 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>0.02187872521965595</v>
+        <v>0.02419478945365228</v>
       </c>
       <c r="C8">
-        <v>0.04915485956801527</v>
+        <v>0.05103119334852347</v>
       </c>
       <c r="D8">
-        <v>0.01644618665920698</v>
+        <v>0.03134774108745998</v>
       </c>
       <c r="E8">
-        <v>0.05229465864850822</v>
+        <v>0.05311179805875892</v>
       </c>
       <c r="F8">
-        <v>1.046138680177202</v>
+        <v>1.047537409854317</v>
       </c>
       <c r="G8">
-        <v>22.64523890232749</v>
+        <v>22.64541234666777</v>
       </c>
       <c r="H8">
-        <v>5.224398961554482</v>
+        <v>4.394449154672439</v>
       </c>
       <c r="I8">
-        <v>0.4508043223397049</v>
+        <v>0.5106140631753087</v>
       </c>
       <c r="J8">
-        <v>0.01632191202275601</v>
+        <v>0.01534908982431785</v>
       </c>
       <c r="K8">
-        <v>329.875</v>
+        <v>310.75</v>
       </c>
       <c r="L8">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>0.1772198776027698</v>
+        <v>0.0002091454610426147</v>
       </c>
       <c r="N8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0.9016232857142856</v>
+        <v>0.9484485714285715</v>
       </c>
       <c r="Q8">
-        <v>0.8901369285714286</v>
+        <v>0.9771257142857143</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>1.194965183820528</v>
       </c>
       <c r="G9">
-        <v>23.80440485569009</v>
+        <v>23.89466839118413</v>
       </c>
       <c r="H9">
-        <v>6.456769655572163</v>
+        <v>6.3578422665081</v>
       </c>
       <c r="I9">
         <v>0.9977810209300527</v>
@@ -935,10 +935,10 @@
         <v>1109</v>
       </c>
       <c r="M9">
-        <v>0.7000620671548874</v>
+        <v>0.0002752738152731088</v>
       </c>
       <c r="N9">
-        <v>900</v>
+        <v>226</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>3.82816</v>
       </c>
       <c r="Q9">
-        <v>2.29794</v>
+        <v>1.246464</v>
       </c>
       <c r="R9">
         <v>1.034154160882978</v>

--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -37,7 +37,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>delta_5</t>
+    <t>const_delta_5</t>
   </si>
   <si>
     <t>vol_pre</t>
@@ -587,7 +587,7 @@
         <v>3.751525814696774</v>
       </c>
       <c r="I3">
-        <v>0.1202108090441464</v>
+        <v>0.1412459156745748</v>
       </c>
       <c r="J3">
         <v>0.006625650661370029</v>
@@ -643,7 +643,7 @@
         <v>0.9973697777978907</v>
       </c>
       <c r="I4">
-        <v>0.4736644544527865</v>
+        <v>0.4746549884412806</v>
       </c>
       <c r="J4">
         <v>0.01714635297483038</v>
@@ -699,7 +699,7 @@
         <v>2.079441541679836</v>
       </c>
       <c r="I5">
-        <v>-0.9999999988992182</v>
+        <v>-0.9999724892508826</v>
       </c>
       <c r="J5">
         <v>-0.05640989319730799</v>
@@ -755,7 +755,7 @@
         <v>3.091042453358316</v>
       </c>
       <c r="I6">
-        <v>-0.2803987719560748</v>
+        <v>-0.3103074322973053</v>
       </c>
       <c r="J6">
         <v>-0.001048616455305351</v>
@@ -811,7 +811,7 @@
         <v>3.555348061489414</v>
       </c>
       <c r="I7">
-        <v>0.2537756769246015</v>
+        <v>0.3561256105761461</v>
       </c>
       <c r="J7">
         <v>0.008782645917686148</v>
@@ -867,7 +867,7 @@
         <v>4.394449154672439</v>
       </c>
       <c r="I8">
-        <v>0.5106140631753087</v>
+        <v>0.5319809383063349</v>
       </c>
       <c r="J8">
         <v>0.01534908982431785</v>
@@ -923,7 +923,7 @@
         <v>6.3578422665081</v>
       </c>
       <c r="I9">
-        <v>0.9977810209300527</v>
+        <v>0.9999314765222785</v>
       </c>
       <c r="J9">
         <v>0.1088037354803304</v>

--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -25,6 +25,9 @@
     <t>skewness</t>
   </si>
   <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
     <t>amihud</t>
   </si>
   <si>
@@ -41,9 +44,6 @@
   </si>
   <si>
     <t>vol_pre</t>
-  </si>
-  <si>
-    <t>spread</t>
   </si>
   <si>
     <t>open_interest</t>
@@ -542,34 +542,34 @@
         <v>0.05079113137796767</v>
       </c>
       <c r="C3">
-        <v>-0.3922673252131031</v>
+        <v>-0.02789834810615887</v>
       </c>
       <c r="D3">
+        <v>2.514154643281193</v>
+      </c>
+      <c r="E3">
         <v>0.04133262694607547</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.035492079042564</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>22.45315038901959</v>
       </c>
-      <c r="G3">
-        <v>3.751525814696773</v>
-      </c>
       <c r="H3">
+        <v>3.751525814696774</v>
+      </c>
+      <c r="I3">
         <v>0.1502325626890418</v>
       </c>
-      <c r="I3">
-        <v>0.00662565066137003</v>
-      </c>
       <c r="J3">
-        <v>272.882582322357</v>
+        <v>0.001522640473665013</v>
       </c>
       <c r="K3">
         <v>62.842287694974</v>
       </c>
       <c r="L3">
-        <v>9.913366572968729e-05</v>
+        <v>0.2018874741853233</v>
       </c>
       <c r="M3">
         <v>19.47833622183709</v>
@@ -584,7 +584,7 @@
         <v>0.4069075947648247</v>
       </c>
       <c r="Q3">
-        <v>-0.2378059789456139</v>
+        <v>-0.0140958712064982</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -595,34 +595,34 @@
         <v>0.003731186010090094</v>
       </c>
       <c r="C4">
-        <v>0.7598688520816733</v>
+        <v>0.1379632249707749</v>
       </c>
       <c r="D4">
+        <v>0.6150604707898604</v>
+      </c>
+      <c r="E4">
         <v>0.01858911861103874</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.03050946230084511</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3990018775146948</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.9973697777978907</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.4742981764489919</v>
       </c>
-      <c r="I4">
-        <v>0.01714635297483039</v>
-      </c>
       <c r="J4">
-        <v>430.0131586274996</v>
+        <v>0.01981926820230364</v>
       </c>
       <c r="K4">
         <v>99.57502273708356</v>
       </c>
       <c r="L4">
-        <v>0.0001954434683135649</v>
+        <v>0.8409987862249219</v>
       </c>
       <c r="M4">
         <v>29.35356721657771</v>
@@ -631,13 +631,13 @@
         <v>0.4903937099482283</v>
       </c>
       <c r="O4">
-        <v>0.5006873736318863</v>
+        <v>0.5006873736318864</v>
       </c>
       <c r="P4">
         <v>0.5071188567247069</v>
       </c>
       <c r="Q4">
-        <v>0.6087837643419937</v>
+        <v>0.1089125137283196</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -648,34 +648,34 @@
         <v>0.04131897645989702</v>
       </c>
       <c r="C5">
-        <v>-4.49708153823858</v>
+        <v>-0.4620711027457666</v>
       </c>
       <c r="D5">
+        <v>1.736962269846732</v>
+      </c>
+      <c r="E5">
         <v>0.009497568193333628</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.001297431106947</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>21.30018254400138</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.079441541679836</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.9997604782476761</v>
       </c>
-      <c r="I5">
-        <v>-0.05640989319730799</v>
-      </c>
       <c r="J5">
-        <v>-225</v>
+        <v>-0.04652662902029821</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.001841986269043082</v>
+        <v>-3.036531874715</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-4.49708153823858</v>
+        <v>-0.4620711027457666</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -701,34 +701,34 @@
         <v>0.04794669084237118</v>
       </c>
       <c r="C6">
-        <v>-0.811639126970594</v>
+        <v>-0.05721565573959827</v>
       </c>
       <c r="D6">
+        <v>2.173523522665998</v>
+      </c>
+      <c r="E6">
         <v>0.03005780015697953</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.012994946160287</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>22.15855989456801</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3.091042453358316</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.3080398199763968</v>
       </c>
-      <c r="I6">
-        <v>-0.001048616455305351</v>
-      </c>
       <c r="J6">
-        <v>121.5</v>
+        <v>-0.01357244200317704</v>
       </c>
       <c r="K6">
         <v>9</v>
       </c>
       <c r="L6">
-        <v>-1.008796462727275e-05</v>
+        <v>-0.2658447346195993</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>-0.3953216147515852</v>
+        <v>-0.0380090706785387</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,34 +754,34 @@
         <v>0.05153616078919069</v>
       </c>
       <c r="C7">
-        <v>-0.227683830975827</v>
+        <v>-0.01112510211216922</v>
       </c>
       <c r="D7">
+        <v>2.317868563914312</v>
+      </c>
+      <c r="E7">
         <v>0.0354755200939189</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.028511438484733</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>22.35885481011329</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.555348061489414</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.3882199972925051</v>
       </c>
-      <c r="I7">
-        <v>0.008782645917686148</v>
-      </c>
       <c r="J7">
-        <v>174</v>
+        <v>0.001572756098290849</v>
       </c>
       <c r="K7">
         <v>31</v>
       </c>
       <c r="L7">
-        <v>0.0001471774478239837</v>
+        <v>-0.2658447346195993</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -807,34 +807,34 @@
         <v>0.0541894622340562</v>
       </c>
       <c r="C8">
-        <v>0.03134774108745998</v>
+        <v>0.06997027558239223</v>
       </c>
       <c r="D8">
+        <v>2.709360262655134</v>
+      </c>
+      <c r="E8">
         <v>0.05311179805875892</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.047537409854317</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>22.64541234666777</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4.394449154672439</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.5388892934993177</v>
       </c>
-      <c r="I8">
-        <v>0.01534908982431785</v>
-      </c>
       <c r="J8">
-        <v>310.75</v>
+        <v>0.01300365810583488</v>
       </c>
       <c r="K8">
         <v>98</v>
       </c>
       <c r="L8">
-        <v>0.0002091454610426147</v>
+        <v>1.135679189958651</v>
       </c>
       <c r="M8">
         <v>20</v>
@@ -849,7 +849,7 @@
         <v>0.9771257142857143</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.04902062591989097</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -860,34 +860,34 @@
         <v>0.05533712766085275</v>
       </c>
       <c r="C9">
-        <v>1.151316915412297</v>
+        <v>0.1752783704595568</v>
       </c>
       <c r="D9">
+        <v>5.026394680434058</v>
+      </c>
+      <c r="E9">
         <v>0.08706989626776067</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.194965183820528</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>23.89466839118413</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6.3578422665081</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9999402586718592</v>
       </c>
-      <c r="I9">
-        <v>0.1088037354803304</v>
-      </c>
       <c r="J9">
-        <v>9000</v>
+        <v>0.1099651748837012</v>
       </c>
       <c r="K9">
         <v>1109</v>
       </c>
       <c r="L9">
-        <v>0.0002752738152731088</v>
+        <v>1.135679189958651</v>
       </c>
       <c r="M9">
         <v>226</v>
@@ -902,7 +902,7 @@
         <v>1.246464</v>
       </c>
       <c r="Q9">
-        <v>1.034154160882978</v>
+        <v>0.1732608388679185</v>
       </c>
     </row>
   </sheetData>

--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -557,13 +557,13 @@
         <v>22.45315038901959</v>
       </c>
       <c r="H3">
-        <v>3.751525814696774</v>
+        <v>3.751525814696773</v>
       </c>
       <c r="I3">
         <v>0.1502325626890418</v>
       </c>
       <c r="J3">
-        <v>0.001522640473665013</v>
+        <v>0.001525492474135808</v>
       </c>
       <c r="K3">
         <v>62.842287694974</v>
@@ -616,13 +616,13 @@
         <v>0.4742981764489919</v>
       </c>
       <c r="J4">
-        <v>0.01981926820230364</v>
+        <v>0.01982027608484982</v>
       </c>
       <c r="K4">
-        <v>99.57502273708356</v>
+        <v>99.57502273708354</v>
       </c>
       <c r="L4">
-        <v>0.8409987862249219</v>
+        <v>0.8409987862249217</v>
       </c>
       <c r="M4">
         <v>29.35356721657771</v>
@@ -634,7 +634,7 @@
         <v>0.5006873736318864</v>
       </c>
       <c r="P4">
-        <v>0.5071188567247069</v>
+        <v>0.5071188567247068</v>
       </c>
       <c r="Q4">
         <v>0.1089125137283196</v>

--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>log_ret</t>
   </si>
@@ -40,16 +40,13 @@
     <t>time</t>
   </si>
   <si>
-    <t>delta_5</t>
+    <t>delta</t>
   </si>
   <si>
     <t>vol_pre</t>
   </si>
   <si>
     <t>open_interest</t>
-  </si>
-  <si>
-    <t>slope</t>
   </si>
   <si>
     <t>volume</t>
@@ -422,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,11 +474,8 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>577</v>
       </c>
@@ -530,11 +524,8 @@
       <c r="P2">
         <v>577</v>
       </c>
-      <c r="Q2">
-        <v>577</v>
-      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>-0.001938535973185917</v>
       </c>
@@ -569,25 +560,22 @@
         <v>62.842287694974</v>
       </c>
       <c r="L3">
-        <v>0.2018874741853233</v>
+        <v>19.47833622183709</v>
       </c>
       <c r="M3">
-        <v>19.47833622183709</v>
+        <v>0.5996533795493935</v>
       </c>
       <c r="N3">
-        <v>0.5996533795493935</v>
+        <v>0.5809299413237923</v>
       </c>
       <c r="O3">
-        <v>0.5809299413237923</v>
+        <v>0.4069075947648247</v>
       </c>
       <c r="P3">
-        <v>0.4069075947648247</v>
-      </c>
-      <c r="Q3">
         <v>-0.0140958712064982</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0.04621171414816402</v>
       </c>
@@ -622,25 +610,22 @@
         <v>99.57502273708354</v>
       </c>
       <c r="L4">
-        <v>0.8409987862249217</v>
+        <v>29.35356721657771</v>
       </c>
       <c r="M4">
-        <v>29.35356721657771</v>
+        <v>0.4903937099482283</v>
       </c>
       <c r="N4">
-        <v>0.4903937099482283</v>
+        <v>0.5006873736318864</v>
       </c>
       <c r="O4">
-        <v>0.5006873736318864</v>
+        <v>0.5071188567247068</v>
       </c>
       <c r="P4">
-        <v>0.5071188567247068</v>
-      </c>
-      <c r="Q4">
         <v>0.1089125137283196</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>-0.1739821464557565</v>
       </c>
@@ -675,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-3.036531874715</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -687,13 +672,10 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
         <v>-0.4620711027457666</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>-0.027016251829588</v>
       </c>
@@ -728,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="L6">
-        <v>-0.2658447346195993</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -740,13 +722,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
         <v>-0.0380090706785387</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0.0008691538185132686</v>
       </c>
@@ -781,25 +760,22 @@
         <v>31</v>
       </c>
       <c r="L7">
-        <v>-0.2658447346195993</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.855232</v>
       </c>
       <c r="O7">
-        <v>0.855232</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
         <v>-0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0.02419478945365228</v>
       </c>
@@ -834,25 +810,22 @@
         <v>98</v>
       </c>
       <c r="L8">
-        <v>1.135679189958651</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.9484485714285715</v>
       </c>
       <c r="O8">
-        <v>0.9484485714285715</v>
+        <v>0.9771257142857143</v>
       </c>
       <c r="P8">
-        <v>0.9771257142857143</v>
-      </c>
-      <c r="Q8">
         <v>0.04902062591989097</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0.2251189979873125</v>
       </c>
@@ -887,21 +860,18 @@
         <v>1109</v>
       </c>
       <c r="L9">
-        <v>1.135679189958651</v>
+        <v>226</v>
       </c>
       <c r="M9">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3.82816</v>
       </c>
       <c r="O9">
-        <v>3.82816</v>
+        <v>1.246464</v>
       </c>
       <c r="P9">
-        <v>1.246464</v>
-      </c>
-      <c r="Q9">
         <v>0.1732608388679185</v>
       </c>
     </row>

--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -554,7 +554,7 @@
         <v>0.1502325626890418</v>
       </c>
       <c r="J3">
-        <v>0.001525492474135808</v>
+        <v>0.001525492474135807</v>
       </c>
       <c r="K3">
         <v>62.842287694974</v>
@@ -607,7 +607,7 @@
         <v>0.01982027608484982</v>
       </c>
       <c r="K4">
-        <v>99.57502273708354</v>
+        <v>99.57502273708356</v>
       </c>
       <c r="L4">
         <v>29.35356721657771</v>

--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -607,7 +607,7 @@
         <v>0.01982027608484982</v>
       </c>
       <c r="K4">
-        <v>99.57502273708354</v>
+        <v>99.57502273708356</v>
       </c>
       <c r="L4">
         <v>29.35356721657771</v>
@@ -619,7 +619,7 @@
         <v>0.5006873736318864</v>
       </c>
       <c r="O4">
-        <v>0.5071188567247068</v>
+        <v>0.5071188567247069</v>
       </c>
       <c r="P4">
         <v>0.1089125137283196</v>

--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -554,7 +554,7 @@
         <v>0.1502325626890418</v>
       </c>
       <c r="J3">
-        <v>0.001525492474135808</v>
+        <v>0.001525492474135807</v>
       </c>
       <c r="K3">
         <v>62.842287694974</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">

--- a/new_data/independent_variables_describe.xlsx
+++ b/new_data/independent_variables_describe.xlsx
@@ -548,7 +548,7 @@
         <v>22.45315038901959</v>
       </c>
       <c r="H3">
-        <v>3.751525814696773</v>
+        <v>3.751525814696774</v>
       </c>
       <c r="I3">
         <v>0.1502325626890418</v>
@@ -598,7 +598,7 @@
         <v>0.3990018775146948</v>
       </c>
       <c r="H4">
-        <v>0.9973697777978907</v>
+        <v>0.9973697777978906</v>
       </c>
       <c r="I4">
         <v>0.4742981764489919</v>
@@ -616,7 +616,7 @@
         <v>0.4903937099482283</v>
       </c>
       <c r="N4">
-        <v>0.5006873736318864</v>
+        <v>0.5006873736318863</v>
       </c>
       <c r="O4">
         <v>0.5071188567247069</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
